--- a/ImageSuggestion/SectionScoring/new5_tf_genkei_0.0/tfpn/allTFPN.xlsx
+++ b/ImageSuggestion/SectionScoring/new5_tf_genkei_0.0/tfpn/allTFPN.xlsx
@@ -10,6 +10,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$418</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$2:$E$418</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$2:$F$418</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$418</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>TP</t>
     <phoneticPr fontId="1"/>
@@ -108,7 +116,12 @@
     <t>次の級</t>
   </si>
   <si>
-    <t>頻度</t>
+    <t>!FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FLAG</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -263,7 +276,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>頻度</c:v>
+                  <c:v>FLAG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -502,7 +515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>頻度</c:v>
+                  <c:v>!FLAG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -628,7 +641,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>54</c:v>
@@ -928,7 +941,205 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>FLAG</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{BBFEA48A-76FD-4150-B38C-A69231A9F967}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>FLAG</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.00010000000000000003"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>FLAG</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{85814162-E85D-4EBA-B9AE-6684376D5B13}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>!FLAG</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.00010000000000000003"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1471,6 +1682,1022 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1507,6 +2734,167 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="グラフ 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9F7EAD-37AC-4082-B98E-E00F0DAAE355}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7381875" y="2014537"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="グラフ 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665649F8-796D-4070-92FF-2141DB7BFBBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2714625" y="1952625"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1778,17 +3166,20 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B33"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>20</v>
@@ -1808,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2260,7 +3651,7 @@
   <dimension ref="A1:N418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.4"/>
@@ -2392,7 +3783,7 @@
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -2533,7 +3924,7 @@
       </c>
       <c r="N6" s="3">
         <f>AVERAGE(F2:F280)</f>
-        <v>3.5538883453297928E-4</v>
+        <v>3.6055812667164081E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -2577,7 +3968,7 @@
       </c>
       <c r="N7">
         <f ca="1">_xlfn.VAR.P(F2:INDIRECT("F"&amp;(N3+1)))</f>
-        <v>1.2168340358055058E-7</v>
+        <v>1.2158951370653353E-7</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -6452,9 +7843,7 @@
       <c r="E277">
         <v>7.1303622143299998E-4</v>
       </c>
-      <c r="F277" s="2">
-        <v>0</v>
-      </c>
+      <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278">
@@ -6463,9 +7852,7 @@
       <c r="E278">
         <v>2.7672462153200002E-4</v>
       </c>
-      <c r="F278" s="2">
-        <v>0</v>
-      </c>
+      <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279">
@@ -6474,9 +7861,7 @@
       <c r="E279">
         <v>2.6861501815299998E-4</v>
       </c>
-      <c r="F279" s="2">
-        <v>0</v>
-      </c>
+      <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280">
@@ -6485,9 +7870,7 @@
       <c r="E280">
         <v>8.2319405644500001E-5</v>
       </c>
-      <c r="F280" s="2">
-        <v>0</v>
-      </c>
+      <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281">
@@ -7569,5 +8952,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>